--- a/Control Frameworks/CMMC v1.02/CMMCModelExcel_V1.02_20200318.xlsx
+++ b/Control Frameworks/CMMC v1.02/CMMCModelExcel_V1.02_20200318.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23633022-D6B6-F54F-9627-7FA8635D231A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="792"/>
+    <workbookView xWindow="660" yWindow="8100" windowWidth="27120" windowHeight="19340" tabRatio="792" firstSheet="13" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notices" sheetId="95" r:id="rId1"/>
@@ -67,7 +68,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="17">'System &amp; Comms Protection (SC)'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="18">'System &amp; Info. Integrity (SI)'!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1763,8 +1764,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2201,14 +2202,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="4"/>
-    <cellStyle name="Normal 3 2" xfId="3"/>
-    <cellStyle name="Normal 3 2 2" xfId="2"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="5"/>
-    <cellStyle name="Normal 3 2 2 2 2" xfId="8"/>
-    <cellStyle name="Normal 3 2 2 3" xfId="7"/>
-    <cellStyle name="Normal 3 2 3" xfId="6"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 3 2 2 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 3 2 2 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 3 2 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2532,46 +2533,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="50" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="50" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="172.83203125" style="7" customWidth="1"/>
-    <col min="2" max="16384" width="10.58203125" style="1"/>
+    <col min="2" max="16384" width="10.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="27.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" ht="29">
       <c r="A1" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="27.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:1" ht="29">
       <c r="A2" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" s="4"/>
     </row>
-    <row r="4" spans="1:1" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" s="5" customFormat="1" ht="28.5" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="210" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="225">
       <c r="A5" s="6" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="55" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:1" ht="58">
       <c r="A7" s="46" t="s">
         <v>250</v>
       </c>
@@ -2587,7 +2588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2597,14 +2598,14 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="34.58203125" style="19" customWidth="1"/>
-    <col min="2" max="6" width="34.08203125" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="10.58203125" style="12"/>
+    <col min="1" max="1" width="34.5" style="19" customWidth="1"/>
+    <col min="2" max="6" width="34" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="10.5" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" ht="31" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" s="9" customFormat="1" ht="31">
       <c r="A1" s="49" t="s">
         <v>41</v>
       </c>
@@ -2614,7 +2615,7 @@
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
     </row>
-    <row r="2" spans="1:6" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="21" customFormat="1" ht="21">
       <c r="A2" s="51" t="s">
         <v>2</v>
       </c>
@@ -2626,7 +2627,7 @@
       <c r="E2" s="51"/>
       <c r="F2" s="51"/>
     </row>
-    <row r="3" spans="1:6" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="21" customFormat="1" ht="21">
       <c r="A3" s="51"/>
       <c r="B3" s="20" t="s">
         <v>4</v>
@@ -2644,7 +2645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="18" customFormat="1" ht="119.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" s="18" customFormat="1" ht="119.5" customHeight="1">
       <c r="A4" s="48" t="s">
         <v>42</v>
       </c>
@@ -2658,7 +2659,7 @@
       <c r="E4" s="22"/>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:6" s="18" customFormat="1" ht="151" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" s="18" customFormat="1" ht="151" customHeight="1">
       <c r="A5" s="48"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13" t="s">
@@ -2670,7 +2671,7 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:6" s="18" customFormat="1" ht="180.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" s="18" customFormat="1" ht="180.5" customHeight="1">
       <c r="A6" s="48"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13" t="s">
@@ -2680,7 +2681,7 @@
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:6" s="18" customFormat="1" ht="125.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" s="18" customFormat="1" ht="125.25" customHeight="1">
       <c r="A7" s="48"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13" t="s">
@@ -2690,7 +2691,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" s="18" customFormat="1">
       <c r="A8" s="17"/>
       <c r="C8" s="36"/>
     </row>
@@ -2711,7 +2712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2721,14 +2722,14 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="34.58203125" style="19" customWidth="1"/>
-    <col min="2" max="6" width="34.08203125" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="10.58203125" style="12"/>
+    <col min="1" max="1" width="34.5" style="19" customWidth="1"/>
+    <col min="2" max="6" width="34" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="10.5" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" ht="31" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" s="9" customFormat="1" ht="31">
       <c r="A1" s="49" t="s">
         <v>43</v>
       </c>
@@ -2738,7 +2739,7 @@
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
     </row>
-    <row r="2" spans="1:6" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="21" customFormat="1" ht="21">
       <c r="A2" s="51" t="s">
         <v>2</v>
       </c>
@@ -2750,7 +2751,7 @@
       <c r="E2" s="51"/>
       <c r="F2" s="51"/>
     </row>
-    <row r="3" spans="1:6" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="21" customFormat="1" ht="21">
       <c r="A3" s="51"/>
       <c r="B3" s="20" t="s">
         <v>4</v>
@@ -2768,7 +2769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="18" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" s="18" customFormat="1" ht="115.5" customHeight="1">
       <c r="A4" s="14" t="s">
         <v>44</v>
       </c>
@@ -2780,7 +2781,7 @@
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:6" s="18" customFormat="1" ht="137.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" s="18" customFormat="1" ht="137.5" customHeight="1">
       <c r="A5" s="53" t="s">
         <v>45</v>
       </c>
@@ -2794,7 +2795,7 @@
       <c r="E5" s="23"/>
       <c r="F5" s="23"/>
     </row>
-    <row r="6" spans="1:6" s="18" customFormat="1" ht="132.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" s="18" customFormat="1" ht="132.75" customHeight="1">
       <c r="A6" s="53"/>
       <c r="B6" s="23"/>
       <c r="C6" s="23" t="s">
@@ -2804,7 +2805,7 @@
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
     </row>
-    <row r="7" spans="1:6" s="18" customFormat="1" ht="136.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" s="18" customFormat="1" ht="136.5" customHeight="1">
       <c r="A7" s="53"/>
       <c r="B7" s="23"/>
       <c r="C7" s="23" t="s">
@@ -2814,7 +2815,7 @@
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
     </row>
-    <row r="8" spans="1:6" s="18" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" s="18" customFormat="1" ht="169.5" customHeight="1">
       <c r="A8" s="13" t="s">
         <v>46</v>
       </c>
@@ -2826,7 +2827,7 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:6" s="18" customFormat="1" ht="149.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" s="18" customFormat="1" ht="149.5" customHeight="1">
       <c r="A9" s="52" t="s">
         <v>47</v>
       </c>
@@ -2838,7 +2839,7 @@
       <c r="E9" s="23"/>
       <c r="F9" s="24"/>
     </row>
-    <row r="10" spans="1:6" s="18" customFormat="1" ht="169" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" s="18" customFormat="1" ht="169" customHeight="1">
       <c r="A10" s="52"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
@@ -2848,7 +2849,7 @@
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
     </row>
-    <row r="11" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:6" s="18" customFormat="1"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" sort="0" selectUnlockedCells="1"/>
   <mergeCells count="5">
@@ -2867,7 +2868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2877,14 +2878,14 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="34.58203125" style="19" customWidth="1"/>
-    <col min="2" max="6" width="34.08203125" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="10.58203125" style="12"/>
+    <col min="1" max="1" width="34.5" style="19" customWidth="1"/>
+    <col min="2" max="6" width="34" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="10.5" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" ht="31" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" s="9" customFormat="1" ht="31">
       <c r="A1" s="49" t="s">
         <v>48</v>
       </c>
@@ -2894,7 +2895,7 @@
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
     </row>
-    <row r="2" spans="1:6" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="21" customFormat="1" ht="21">
       <c r="A2" s="51" t="s">
         <v>2</v>
       </c>
@@ -2906,7 +2907,7 @@
       <c r="E2" s="51"/>
       <c r="F2" s="51"/>
     </row>
-    <row r="3" spans="1:6" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="21" customFormat="1" ht="21">
       <c r="A3" s="51"/>
       <c r="B3" s="20" t="s">
         <v>4</v>
@@ -2924,7 +2925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="18" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" s="18" customFormat="1" ht="122.25" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>49</v>
       </c>
@@ -2936,7 +2937,7 @@
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
     </row>
-    <row r="5" spans="1:6" s="18" customFormat="1" ht="152.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" s="18" customFormat="1" ht="152.25" customHeight="1">
       <c r="A5" s="23" t="s">
         <v>50</v>
       </c>
@@ -2948,7 +2949,7 @@
       <c r="E5" s="23"/>
       <c r="F5" s="23"/>
     </row>
-    <row r="6" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" s="18" customFormat="1">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="37"/>
@@ -2969,7 +2970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2979,14 +2980,14 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="34.58203125" style="19" customWidth="1"/>
-    <col min="2" max="6" width="34.08203125" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="10.58203125" style="12"/>
+    <col min="1" max="1" width="34.5" style="19" customWidth="1"/>
+    <col min="2" max="6" width="34" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="10.5" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" ht="31" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" s="9" customFormat="1" ht="31">
       <c r="A1" s="49" t="s">
         <v>51</v>
       </c>
@@ -2996,7 +2997,7 @@
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
     </row>
-    <row r="2" spans="1:6" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="21" customFormat="1" ht="21">
       <c r="A2" s="51" t="s">
         <v>2</v>
       </c>
@@ -3008,7 +3009,7 @@
       <c r="E2" s="51"/>
       <c r="F2" s="51"/>
     </row>
-    <row r="3" spans="1:6" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="21" customFormat="1" ht="21">
       <c r="A3" s="51"/>
       <c r="B3" s="20" t="s">
         <v>4</v>
@@ -3026,7 +3027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="18" customFormat="1" ht="164" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" s="18" customFormat="1" ht="164" customHeight="1">
       <c r="A4" s="48" t="s">
         <v>52</v>
       </c>
@@ -3042,7 +3043,7 @@
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:6" s="18" customFormat="1" ht="121.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" s="18" customFormat="1" ht="121.5" customHeight="1">
       <c r="A5" s="48"/>
       <c r="B5" s="13" t="s">
         <v>153</v>
@@ -3052,7 +3053,7 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:6" s="18" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" s="18" customFormat="1" ht="85.5" customHeight="1">
       <c r="A6" s="48"/>
       <c r="B6" s="13" t="s">
         <v>139</v>
@@ -3062,7 +3063,7 @@
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:6" s="18" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" s="18" customFormat="1" ht="114" customHeight="1">
       <c r="A7" s="48"/>
       <c r="B7" s="13" t="s">
         <v>140</v>
@@ -3072,7 +3073,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" s="18" customFormat="1">
       <c r="A8" s="38"/>
       <c r="B8" s="25"/>
     </row>
@@ -3093,24 +3094,24 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="54" zoomScaleNormal="54" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="34.58203125" style="19" customWidth="1"/>
-    <col min="2" max="6" width="34.08203125" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="10.58203125" style="12"/>
+    <col min="1" max="1" width="34.5" style="19" customWidth="1"/>
+    <col min="2" max="6" width="34" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="10.5" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" ht="31" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" s="9" customFormat="1" ht="31">
       <c r="A1" s="49" t="s">
         <v>53</v>
       </c>
@@ -3120,7 +3121,7 @@
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
     </row>
-    <row r="2" spans="1:6" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="21" customFormat="1" ht="21">
       <c r="A2" s="51" t="s">
         <v>2</v>
       </c>
@@ -3132,7 +3133,7 @@
       <c r="E2" s="51"/>
       <c r="F2" s="51"/>
     </row>
-    <row r="3" spans="1:6" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="21" customFormat="1" ht="21">
       <c r="A3" s="51"/>
       <c r="B3" s="20" t="s">
         <v>4</v>
@@ -3150,7 +3151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="18" customFormat="1" ht="132.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" s="18" customFormat="1" ht="132.5" customHeight="1">
       <c r="A4" s="48" t="s">
         <v>240</v>
       </c>
@@ -3164,7 +3165,7 @@
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:6" s="18" customFormat="1" ht="106" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" s="18" customFormat="1" ht="106" customHeight="1">
       <c r="A5" s="48"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13" t="s">
@@ -3174,7 +3175,7 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:6" s="18" customFormat="1" ht="169" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" s="18" customFormat="1" ht="169" customHeight="1">
       <c r="A6" s="26" t="s">
         <v>54</v>
       </c>
@@ -3186,7 +3187,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" s="18" customFormat="1" ht="16.5" customHeight="1">
       <c r="C7" s="25"/>
       <c r="D7" s="36"/>
       <c r="E7" s="25"/>
@@ -3208,24 +3209,24 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScale="54" zoomScaleNormal="54" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="A7" sqref="A7:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="34.58203125" style="19" customWidth="1"/>
-    <col min="2" max="6" width="34.08203125" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="10.58203125" style="12"/>
+    <col min="1" max="1" width="34.5" style="19" customWidth="1"/>
+    <col min="2" max="6" width="34" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="10.5" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" ht="31" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" s="9" customFormat="1" ht="31">
       <c r="A1" s="49" t="s">
         <v>55</v>
       </c>
@@ -3235,7 +3236,7 @@
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
     </row>
-    <row r="2" spans="1:6" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="21" customFormat="1" ht="21">
       <c r="A2" s="51" t="s">
         <v>2</v>
       </c>
@@ -3247,7 +3248,7 @@
       <c r="E2" s="51"/>
       <c r="F2" s="51"/>
     </row>
-    <row r="3" spans="1:6" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="21" customFormat="1" ht="21">
       <c r="A3" s="51"/>
       <c r="B3" s="20" t="s">
         <v>4</v>
@@ -3265,7 +3266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="18" customFormat="1" ht="235.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" s="18" customFormat="1" ht="235.5" customHeight="1">
       <c r="A4" s="54" t="s">
         <v>56</v>
       </c>
@@ -3281,7 +3282,7 @@
       </c>
       <c r="F4" s="22"/>
     </row>
-    <row r="5" spans="1:6" s="18" customFormat="1" ht="198.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" s="18" customFormat="1" ht="198.5" customHeight="1">
       <c r="A5" s="54"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13" t="s">
@@ -3293,7 +3294,7 @@
       </c>
       <c r="F5" s="22"/>
     </row>
-    <row r="6" spans="1:6" s="18" customFormat="1" ht="136" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" s="18" customFormat="1" ht="136" customHeight="1">
       <c r="A6" s="54"/>
       <c r="B6" s="13"/>
       <c r="C6" s="22"/>
@@ -3303,7 +3304,7 @@
       </c>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:6" s="18" customFormat="1" ht="136.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" s="18" customFormat="1" ht="136.5" customHeight="1">
       <c r="A7" s="52" t="s">
         <v>57</v>
       </c>
@@ -3319,7 +3320,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="18" customFormat="1" ht="161.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" s="18" customFormat="1" ht="161.25" customHeight="1">
       <c r="A8" s="52"/>
       <c r="B8" s="23"/>
       <c r="C8" s="24"/>
@@ -3331,7 +3332,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="18" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" s="18" customFormat="1" ht="169.5" customHeight="1">
       <c r="A9" s="45" t="s">
         <v>60</v>
       </c>
@@ -3343,7 +3344,7 @@
       </c>
       <c r="F9" s="22"/>
     </row>
-    <row r="10" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" s="18" customFormat="1">
       <c r="A10" s="17"/>
       <c r="E10" s="25"/>
     </row>
@@ -3365,24 +3366,24 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScale="54" zoomScaleNormal="54" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="34.58203125" style="19" customWidth="1"/>
-    <col min="2" max="6" width="34.08203125" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="10.58203125" style="12"/>
+    <col min="1" max="1" width="34.5" style="19" customWidth="1"/>
+    <col min="2" max="6" width="34" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="10.5" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" s="9" customFormat="1" ht="31" customHeight="1">
       <c r="A1" s="49" t="s">
         <v>61</v>
       </c>
@@ -3392,7 +3393,7 @@
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
     </row>
-    <row r="2" spans="1:6" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="21" customFormat="1" ht="21">
       <c r="A2" s="51" t="s">
         <v>2</v>
       </c>
@@ -3404,7 +3405,7 @@
       <c r="E2" s="51"/>
       <c r="F2" s="51"/>
     </row>
-    <row r="3" spans="1:6" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="21" customFormat="1" ht="21">
       <c r="A3" s="51"/>
       <c r="B3" s="20" t="s">
         <v>4</v>
@@ -3422,7 +3423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="18" customFormat="1" ht="179.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" s="18" customFormat="1" ht="179.5" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>62</v>
       </c>
@@ -3436,7 +3437,7 @@
       </c>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:6" s="18" customFormat="1" ht="152.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" s="18" customFormat="1" ht="152.25" customHeight="1">
       <c r="A5" s="52" t="s">
         <v>63</v>
       </c>
@@ -3452,7 +3453,7 @@
       </c>
       <c r="F5" s="24"/>
     </row>
-    <row r="6" spans="1:6" s="18" customFormat="1" ht="139" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" s="18" customFormat="1" ht="139" customHeight="1">
       <c r="A6" s="52"/>
       <c r="B6" s="23"/>
       <c r="C6" s="23" t="s">
@@ -3464,7 +3465,7 @@
       </c>
       <c r="F6" s="23"/>
     </row>
-    <row r="7" spans="1:6" s="18" customFormat="1" ht="138.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" s="18" customFormat="1" ht="138.75" customHeight="1">
       <c r="A7" s="13" t="s">
         <v>64</v>
       </c>
@@ -3476,7 +3477,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" s="18" customFormat="1">
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
       <c r="E8" s="36"/>
@@ -3498,25 +3499,25 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="54" zoomScaleNormal="54" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="34.58203125" style="19" customWidth="1"/>
-    <col min="2" max="6" width="34.08203125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="34.5" style="19" customWidth="1"/>
+    <col min="2" max="6" width="34" style="12" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="10.58203125" style="12"/>
+    <col min="8" max="16384" width="10.5" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" ht="31" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" s="9" customFormat="1" ht="31">
       <c r="A1" s="49" t="s">
         <v>65</v>
       </c>
@@ -3526,7 +3527,7 @@
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
     </row>
-    <row r="2" spans="1:6" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="21" customFormat="1" ht="21">
       <c r="A2" s="51" t="s">
         <v>2</v>
       </c>
@@ -3538,7 +3539,7 @@
       <c r="E2" s="51"/>
       <c r="F2" s="51"/>
     </row>
-    <row r="3" spans="1:6" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="21" customFormat="1" ht="21">
       <c r="A3" s="51"/>
       <c r="B3" s="20" t="s">
         <v>4</v>
@@ -3556,7 +3557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="18" customFormat="1" ht="194.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" s="18" customFormat="1" ht="194.5" customHeight="1">
       <c r="A4" s="48" t="s">
         <v>66</v>
       </c>
@@ -3570,7 +3571,7 @@
       </c>
       <c r="F4" s="22"/>
     </row>
-    <row r="5" spans="1:6" s="18" customFormat="1" ht="102.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" s="18" customFormat="1" ht="102.5" customHeight="1">
       <c r="A5" s="48"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -3580,7 +3581,7 @@
       </c>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" s="18" customFormat="1">
       <c r="B6" s="25"/>
       <c r="F6" s="25"/>
     </row>
@@ -3601,24 +3602,24 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScale="54" zoomScaleNormal="54" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView topLeftCell="A10" zoomScale="54" zoomScaleNormal="54" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="34.58203125" style="19" customWidth="1"/>
-    <col min="2" max="6" width="34.08203125" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="10.58203125" style="12"/>
+    <col min="1" max="1" width="34.5" style="19" customWidth="1"/>
+    <col min="2" max="6" width="34" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="10.5" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" ht="31" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" s="9" customFormat="1" ht="31">
       <c r="A1" s="49" t="s">
         <v>67</v>
       </c>
@@ -3628,7 +3629,7 @@
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
     </row>
-    <row r="2" spans="1:6" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="21" customFormat="1" ht="21">
       <c r="A2" s="51" t="s">
         <v>2</v>
       </c>
@@ -3640,7 +3641,7 @@
       <c r="E2" s="51"/>
       <c r="F2" s="51"/>
     </row>
-    <row r="3" spans="1:6" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="21" customFormat="1" ht="21">
       <c r="A3" s="51"/>
       <c r="B3" s="20" t="s">
         <v>4</v>
@@ -3658,7 +3659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="21" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" s="21" customFormat="1" ht="166.5" customHeight="1">
       <c r="A4" s="48" t="s">
         <v>84</v>
       </c>
@@ -3676,7 +3677,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="18" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" s="18" customFormat="1" ht="166.5" customHeight="1">
       <c r="A5" s="48"/>
       <c r="B5" s="16"/>
       <c r="C5" s="14" t="s">
@@ -3692,7 +3693,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="18" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" s="18" customFormat="1" ht="134.25" customHeight="1">
       <c r="A6" s="48"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -3702,7 +3703,7 @@
       <c r="E6" s="13"/>
       <c r="F6" s="16"/>
     </row>
-    <row r="7" spans="1:6" s="18" customFormat="1" ht="119.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" s="18" customFormat="1" ht="119.5" customHeight="1">
       <c r="A7" s="48"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -3712,7 +3713,7 @@
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
     </row>
-    <row r="8" spans="1:6" s="18" customFormat="1" ht="119.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" s="18" customFormat="1" ht="119.25" customHeight="1">
       <c r="A8" s="48"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -3722,7 +3723,7 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:6" s="18" customFormat="1" ht="199.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" s="18" customFormat="1" ht="199.5" customHeight="1">
       <c r="A9" s="48"/>
       <c r="B9" s="13"/>
       <c r="C9" s="16"/>
@@ -3732,7 +3733,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:6" s="18" customFormat="1" ht="172.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" s="18" customFormat="1" ht="172.5" customHeight="1">
       <c r="A10" s="48"/>
       <c r="B10" s="13"/>
       <c r="C10" s="16"/>
@@ -3742,7 +3743,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:6" s="18" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" s="18" customFormat="1" ht="120" customHeight="1">
       <c r="A11" s="48"/>
       <c r="B11" s="13"/>
       <c r="C11" s="16"/>
@@ -3752,7 +3753,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:6" s="18" customFormat="1" ht="119.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" s="18" customFormat="1" ht="119.25" customHeight="1">
       <c r="A12" s="48"/>
       <c r="B12" s="13"/>
       <c r="C12" s="16"/>
@@ -3762,7 +3763,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="1:6" s="18" customFormat="1" ht="119.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" s="18" customFormat="1" ht="119.25" customHeight="1">
       <c r="A13" s="48"/>
       <c r="B13" s="13"/>
       <c r="C13" s="16"/>
@@ -3772,7 +3773,7 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
     </row>
-    <row r="14" spans="1:6" s="18" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" s="18" customFormat="1" ht="109.5" customHeight="1">
       <c r="A14" s="48"/>
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
@@ -3782,7 +3783,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
     </row>
-    <row r="15" spans="1:6" s="18" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" s="18" customFormat="1" ht="90.75" customHeight="1">
       <c r="A15" s="48"/>
       <c r="B15" s="13"/>
       <c r="C15" s="14"/>
@@ -3792,7 +3793,7 @@
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:6" s="18" customFormat="1" ht="122.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" s="18" customFormat="1" ht="122.5" customHeight="1">
       <c r="A16" s="48"/>
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
@@ -3802,7 +3803,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="1:6" s="18" customFormat="1" ht="212" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" s="18" customFormat="1" ht="212" customHeight="1">
       <c r="A17" s="53" t="s">
         <v>85</v>
       </c>
@@ -3820,7 +3821,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="18" customFormat="1" ht="183.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" s="18" customFormat="1" ht="183.75" customHeight="1">
       <c r="A18" s="53"/>
       <c r="B18" s="26" t="s">
         <v>208</v>
@@ -3834,7 +3835,7 @@
       </c>
       <c r="F18" s="27"/>
     </row>
-    <row r="19" spans="1:6" s="18" customFormat="1" ht="121" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" s="18" customFormat="1" ht="121" customHeight="1">
       <c r="A19" s="53"/>
       <c r="B19" s="23"/>
       <c r="C19" s="26"/>
@@ -3844,7 +3845,7 @@
       </c>
       <c r="F19" s="23"/>
     </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="18" customHeight="1">
       <c r="A20" s="17"/>
       <c r="E20" s="39"/>
     </row>
@@ -3866,24 +3867,24 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="54" zoomScaleNormal="54" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="54" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="34.58203125" style="19" customWidth="1"/>
-    <col min="2" max="6" width="34.08203125" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="10.58203125" style="12"/>
+    <col min="1" max="1" width="34.5" style="19" customWidth="1"/>
+    <col min="2" max="6" width="34" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="10.5" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" s="9" customFormat="1" ht="31" customHeight="1">
       <c r="A1" s="55" t="s">
         <v>71</v>
       </c>
@@ -3893,7 +3894,7 @@
       <c r="E1" s="56"/>
       <c r="F1" s="57"/>
     </row>
-    <row r="2" spans="1:6" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="21" customFormat="1" ht="21">
       <c r="A2" s="51" t="s">
         <v>2</v>
       </c>
@@ -3905,7 +3906,7 @@
       <c r="E2" s="51"/>
       <c r="F2" s="51"/>
     </row>
-    <row r="3" spans="1:6" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="21" customFormat="1" ht="21">
       <c r="A3" s="51"/>
       <c r="B3" s="20" t="s">
         <v>4</v>
@@ -3923,7 +3924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="18" customFormat="1" ht="186.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" s="18" customFormat="1" ht="186.75" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>86</v>
       </c>
@@ -3939,7 +3940,7 @@
       </c>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:6" s="18" customFormat="1" ht="181" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" s="18" customFormat="1" ht="181" customHeight="1">
       <c r="A5" s="53" t="s">
         <v>87</v>
       </c>
@@ -3953,7 +3954,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="18" customFormat="1" ht="171" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" s="18" customFormat="1" ht="171" customHeight="1">
       <c r="A6" s="53"/>
       <c r="B6" s="23" t="s">
         <v>231</v>
@@ -3963,7 +3964,7 @@
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
     </row>
-    <row r="7" spans="1:6" s="18" customFormat="1" ht="201" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" s="18" customFormat="1" ht="201" customHeight="1">
       <c r="A7" s="53"/>
       <c r="B7" s="23" t="s">
         <v>230</v>
@@ -3973,7 +3974,7 @@
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
     </row>
-    <row r="8" spans="1:6" s="18" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" s="18" customFormat="1" ht="186" customHeight="1">
       <c r="A8" s="54" t="s">
         <v>88</v>
       </c>
@@ -3989,7 +3990,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="18" customFormat="1" ht="122.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" s="18" customFormat="1" ht="122.5" customHeight="1">
       <c r="A9" s="54"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13" t="s">
@@ -3999,7 +4000,7 @@
       <c r="E9" s="22"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:6" s="18" customFormat="1" ht="117.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" s="18" customFormat="1" ht="117.5" customHeight="1">
       <c r="A10" s="53" t="s">
         <v>89</v>
       </c>
@@ -4011,7 +4012,7 @@
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
     </row>
-    <row r="11" spans="1:6" s="40" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" s="40" customFormat="1" ht="88.5" customHeight="1">
       <c r="A11" s="53"/>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
@@ -4021,7 +4022,7 @@
       <c r="E11" s="24"/>
       <c r="F11" s="23"/>
     </row>
-    <row r="12" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" s="18" customFormat="1">
       <c r="A12" s="17"/>
       <c r="E12" s="37"/>
     </row>
@@ -4044,7 +4045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4054,15 +4055,15 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="34.58203125" style="19" customWidth="1"/>
-    <col min="2" max="6" width="34.08203125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13.58203125" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="10.58203125" style="12"/>
+    <col min="1" max="1" width="34.5" style="19" customWidth="1"/>
+    <col min="2" max="6" width="34" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="10.5" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1" ht="31" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:7" s="9" customFormat="1" ht="31">
       <c r="A1" s="49" t="s">
         <v>73</v>
       </c>
@@ -4072,7 +4073,7 @@
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
     </row>
-    <row r="2" spans="1:7" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="10" customFormat="1" ht="21">
       <c r="A2" s="47" t="s">
         <v>74</v>
       </c>
@@ -4084,7 +4085,7 @@
       <c r="E2" s="47"/>
       <c r="F2" s="47"/>
     </row>
-    <row r="3" spans="1:7" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" s="10" customFormat="1" ht="21">
       <c r="A3" s="47"/>
       <c r="B3" s="11" t="s">
         <v>76</v>
@@ -4103,7 +4104,7 @@
       </c>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:7" s="15" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" s="15" customFormat="1" ht="97.5" customHeight="1">
       <c r="A4" s="48" t="s">
         <v>81</v>
       </c>
@@ -4121,7 +4122,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="15" customFormat="1" ht="79" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" s="15" customFormat="1" ht="79" customHeight="1">
       <c r="A5" s="48"/>
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
@@ -4131,7 +4132,7 @@
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" s="15" customFormat="1">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="17"/>
@@ -4139,7 +4140,7 @@
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="37.5" customHeight="1">
       <c r="A7" s="50" t="s">
         <v>247</v>
       </c>
@@ -4149,7 +4150,7 @@
       <c r="E7" s="50"/>
       <c r="F7" s="50"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" s="42"/>
       <c r="B8" s="42"/>
       <c r="C8" s="42"/>
@@ -4157,7 +4158,7 @@
       <c r="E8" s="42"/>
       <c r="F8" s="42"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" s="43"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -4165,7 +4166,7 @@
       <c r="E9" s="44"/>
       <c r="F9" s="44"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7">
       <c r="A10" s="43"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
@@ -4173,7 +4174,7 @@
       <c r="E10" s="44"/>
       <c r="F10" s="44"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7">
       <c r="A11" s="43"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
@@ -4181,7 +4182,7 @@
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" s="43"/>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
@@ -4207,25 +4208,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView zoomScale="54" zoomScaleNormal="54" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="34.58203125" style="19" customWidth="1"/>
-    <col min="2" max="6" width="34.08203125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="34.5" style="19" customWidth="1"/>
+    <col min="2" max="6" width="34" style="12" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="10.58203125" style="12"/>
+    <col min="8" max="16384" width="10.5" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" s="9" customFormat="1" ht="31" customHeight="1">
       <c r="A1" s="49" t="s">
         <v>1</v>
       </c>
@@ -4235,7 +4236,7 @@
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
     </row>
-    <row r="2" spans="1:6" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="21" customFormat="1" ht="21">
       <c r="A2" s="51" t="s">
         <v>2</v>
       </c>
@@ -4247,7 +4248,7 @@
       <c r="E2" s="51"/>
       <c r="F2" s="51"/>
     </row>
-    <row r="3" spans="1:6" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="21" customFormat="1" ht="21">
       <c r="A3" s="51"/>
       <c r="B3" s="20" t="s">
         <v>4</v>
@@ -4265,7 +4266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="18" customFormat="1" ht="241.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" s="18" customFormat="1" ht="241.5" customHeight="1">
       <c r="A4" s="48" t="s">
         <v>9</v>
       </c>
@@ -4279,7 +4280,7 @@
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:6" s="18" customFormat="1" ht="118" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" s="18" customFormat="1" ht="118" customHeight="1">
       <c r="A5" s="48"/>
       <c r="B5" s="22"/>
       <c r="C5" s="13" t="s">
@@ -4289,7 +4290,7 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:6" s="18" customFormat="1" ht="230.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" s="18" customFormat="1" ht="230.5" customHeight="1">
       <c r="A6" s="53" t="s">
         <v>10</v>
       </c>
@@ -4309,7 +4310,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="18" customFormat="1" ht="164.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" s="18" customFormat="1" ht="164.5" customHeight="1">
       <c r="A7" s="53"/>
       <c r="B7" s="24"/>
       <c r="C7" s="23" t="s">
@@ -4323,7 +4324,7 @@
       </c>
       <c r="F7" s="24"/>
     </row>
-    <row r="8" spans="1:6" s="18" customFormat="1" ht="104.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" s="18" customFormat="1" ht="104.5" customHeight="1">
       <c r="A8" s="53"/>
       <c r="B8" s="24"/>
       <c r="C8" s="23" t="s">
@@ -4335,7 +4336,7 @@
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
     </row>
-    <row r="9" spans="1:6" s="18" customFormat="1" ht="135.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" s="18" customFormat="1" ht="135.75" customHeight="1">
       <c r="A9" s="53"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23" t="s">
@@ -4347,7 +4348,7 @@
       <c r="E9" s="24"/>
       <c r="F9" s="23"/>
     </row>
-    <row r="10" spans="1:6" s="18" customFormat="1" ht="139.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" s="18" customFormat="1" ht="139.5" customHeight="1">
       <c r="A10" s="53"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23" t="s">
@@ -4359,7 +4360,7 @@
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
     </row>
-    <row r="11" spans="1:6" s="18" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" s="18" customFormat="1" ht="148.5" customHeight="1">
       <c r="A11" s="48" t="s">
         <v>12</v>
       </c>
@@ -4375,7 +4376,7 @@
       </c>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:6" s="18" customFormat="1" ht="164" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" s="18" customFormat="1" ht="164" customHeight="1">
       <c r="A12" s="48"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13" t="s">
@@ -4387,7 +4388,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" s="18" customFormat="1" ht="187" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" s="18" customFormat="1" ht="187" customHeight="1">
       <c r="A13" s="52" t="s">
         <v>14</v>
       </c>
@@ -4403,7 +4404,7 @@
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
     </row>
-    <row r="14" spans="1:6" s="18" customFormat="1" ht="121" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" s="18" customFormat="1" ht="121" customHeight="1">
       <c r="A14" s="52"/>
       <c r="B14" s="23" t="s">
         <v>92</v>
@@ -4413,7 +4414,7 @@
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
     </row>
-    <row r="15" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" s="18" customFormat="1">
       <c r="F15" s="25"/>
     </row>
   </sheetData>
@@ -4436,25 +4437,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="54" zoomScaleNormal="54" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="34.58203125" style="19" customWidth="1"/>
-    <col min="2" max="6" width="34.08203125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="34.5" style="19" customWidth="1"/>
+    <col min="2" max="6" width="34" style="12" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="10.58203125" style="12"/>
+    <col min="8" max="16384" width="10.5" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" ht="31" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" s="9" customFormat="1" ht="31">
       <c r="A1" s="49" t="s">
         <v>15</v>
       </c>
@@ -4464,7 +4465,7 @@
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
     </row>
-    <row r="2" spans="1:6" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="21" customFormat="1" ht="21">
       <c r="A2" s="51" t="s">
         <v>2</v>
       </c>
@@ -4476,7 +4477,7 @@
       <c r="E2" s="51"/>
       <c r="F2" s="51"/>
     </row>
-    <row r="3" spans="1:6" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="21" customFormat="1" ht="21">
       <c r="A3" s="51"/>
       <c r="B3" s="20" t="s">
         <v>4</v>
@@ -4494,7 +4495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="18" customFormat="1" ht="93.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" s="18" customFormat="1" ht="93.75" customHeight="1">
       <c r="A4" s="14" t="s">
         <v>16</v>
       </c>
@@ -4506,7 +4507,7 @@
       <c r="E4" s="16"/>
       <c r="F4" s="14"/>
     </row>
-    <row r="5" spans="1:6" s="18" customFormat="1" ht="197.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" s="18" customFormat="1" ht="197.25" customHeight="1">
       <c r="A5" s="26" t="s">
         <v>18</v>
       </c>
@@ -4518,7 +4519,7 @@
       </c>
       <c r="F5" s="26"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" s="17"/>
       <c r="E6" s="28"/>
     </row>
@@ -4538,24 +4539,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScale="54" zoomScaleNormal="54" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="34.58203125" style="32" customWidth="1"/>
-    <col min="2" max="6" width="34.08203125" style="31" customWidth="1"/>
-    <col min="7" max="16384" width="10.58203125" style="31"/>
+    <col min="1" max="1" width="34.5" style="32" customWidth="1"/>
+    <col min="2" max="6" width="34" style="31" customWidth="1"/>
+    <col min="7" max="16384" width="10.5" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="29" customFormat="1" ht="31" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" s="29" customFormat="1" ht="31">
       <c r="A1" s="49" t="s">
         <v>19</v>
       </c>
@@ -4565,7 +4566,7 @@
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
     </row>
-    <row r="2" spans="1:6" s="30" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="30" customFormat="1" ht="21">
       <c r="A2" s="51" t="s">
         <v>2</v>
       </c>
@@ -4577,7 +4578,7 @@
       <c r="E2" s="51"/>
       <c r="F2" s="51"/>
     </row>
-    <row r="3" spans="1:6" s="30" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="30" customFormat="1" ht="21">
       <c r="A3" s="51"/>
       <c r="B3" s="20" t="s">
         <v>4</v>
@@ -4595,7 +4596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="17" customFormat="1" ht="194" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" s="17" customFormat="1" ht="194" customHeight="1">
       <c r="A4" s="48" t="s">
         <v>20</v>
       </c>
@@ -4609,7 +4610,7 @@
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
     </row>
-    <row r="5" spans="1:6" s="17" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" s="17" customFormat="1" ht="101.5" customHeight="1">
       <c r="A5" s="48"/>
       <c r="B5" s="14"/>
       <c r="C5" s="16"/>
@@ -4619,7 +4620,7 @@
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
     </row>
-    <row r="6" spans="1:6" s="17" customFormat="1" ht="228" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" s="17" customFormat="1" ht="228" customHeight="1">
       <c r="A6" s="53" t="s">
         <v>21</v>
       </c>
@@ -4635,7 +4636,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="17" customFormat="1" ht="174" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" s="17" customFormat="1" ht="174" customHeight="1">
       <c r="A7" s="53"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26" t="s">
@@ -4645,7 +4646,7 @@
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
     </row>
-    <row r="8" spans="1:6" s="17" customFormat="1" ht="119.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" s="17" customFormat="1" ht="119.5" customHeight="1">
       <c r="A8" s="48" t="s">
         <v>22</v>
       </c>
@@ -4657,7 +4658,7 @@
       <c r="E8" s="16"/>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" spans="1:6" s="17" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" s="17" customFormat="1" ht="117" customHeight="1">
       <c r="A9" s="48"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -4667,7 +4668,7 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:6" s="17" customFormat="1" ht="187" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" s="17" customFormat="1" ht="187" customHeight="1">
       <c r="A10" s="53" t="s">
         <v>23</v>
       </c>
@@ -4683,7 +4684,7 @@
       </c>
       <c r="F10" s="27"/>
     </row>
-    <row r="11" spans="1:6" s="17" customFormat="1" ht="134.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" s="17" customFormat="1" ht="134.5" customHeight="1">
       <c r="A11" s="53"/>
       <c r="B11" s="27"/>
       <c r="C11" s="26"/>
@@ -4695,7 +4696,7 @@
       </c>
       <c r="F11" s="26"/>
     </row>
-    <row r="12" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:6" s="17" customFormat="1"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" sort="0" selectUnlockedCells="1"/>
   <mergeCells count="7">
@@ -4716,25 +4717,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="54" zoomScaleNormal="54" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="34.58203125" style="19" customWidth="1"/>
-    <col min="2" max="6" width="34.08203125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13.08203125" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="10.58203125" style="12"/>
+    <col min="1" max="1" width="34.5" style="19" customWidth="1"/>
+    <col min="2" max="6" width="34" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="10.5" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" ht="31" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" s="9" customFormat="1" ht="31">
       <c r="A1" s="49" t="s">
         <v>24</v>
       </c>
@@ -4744,7 +4745,7 @@
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
     </row>
-    <row r="2" spans="1:6" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="21" customFormat="1" ht="21">
       <c r="A2" s="51" t="s">
         <v>2</v>
       </c>
@@ -4756,7 +4757,7 @@
       <c r="E2" s="51"/>
       <c r="F2" s="51"/>
     </row>
-    <row r="3" spans="1:6" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="21" customFormat="1" ht="21">
       <c r="A3" s="51"/>
       <c r="B3" s="20" t="s">
         <v>4</v>
@@ -4774,7 +4775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="18" customFormat="1" ht="260" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" s="18" customFormat="1" ht="260" customHeight="1">
       <c r="A4" s="48" t="s">
         <v>25</v>
       </c>
@@ -4790,7 +4791,7 @@
       </c>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:6" s="18" customFormat="1" ht="229.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" s="18" customFormat="1" ht="229.5" customHeight="1">
       <c r="A5" s="48"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -4800,7 +4801,7 @@
       </c>
       <c r="F5" s="22"/>
     </row>
-    <row r="6" spans="1:6" s="18" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" s="18" customFormat="1" ht="195" customHeight="1">
       <c r="A6" s="26" t="s">
         <v>26</v>
       </c>
@@ -4812,7 +4813,7 @@
       <c r="E6" s="24"/>
       <c r="F6" s="23"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7" s="17"/>
       <c r="E7" s="25"/>
     </row>
@@ -4833,24 +4834,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScale="54" zoomScaleNormal="54" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="34.58203125" style="19" customWidth="1"/>
-    <col min="2" max="6" width="34.08203125" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="10.58203125" style="12"/>
+    <col min="1" max="1" width="34.5" style="19" customWidth="1"/>
+    <col min="2" max="6" width="34" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="10.5" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" ht="31" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" s="9" customFormat="1" ht="31">
       <c r="A1" s="49" t="s">
         <v>27</v>
       </c>
@@ -4860,7 +4861,7 @@
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
     </row>
-    <row r="2" spans="1:6" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="21" customFormat="1" ht="21">
       <c r="A2" s="51" t="s">
         <v>2</v>
       </c>
@@ -4872,7 +4873,7 @@
       <c r="E2" s="51"/>
       <c r="F2" s="51"/>
     </row>
-    <row r="3" spans="1:6" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="21" customFormat="1" ht="21">
       <c r="A3" s="51"/>
       <c r="B3" s="20" t="s">
         <v>4</v>
@@ -4890,7 +4891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="18" customFormat="1" ht="258" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" s="18" customFormat="1" ht="258" customHeight="1">
       <c r="A4" s="48" t="s">
         <v>28</v>
       </c>
@@ -4902,7 +4903,7 @@
       <c r="E4" s="22"/>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:6" s="18" customFormat="1" ht="165.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" s="18" customFormat="1" ht="165.5" customHeight="1">
       <c r="A5" s="48"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13" t="s">
@@ -4912,7 +4913,7 @@
       <c r="E5" s="22"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:6" s="18" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" s="18" customFormat="1" ht="134.25" customHeight="1">
       <c r="A6" s="48"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13" t="s">
@@ -4922,7 +4923,7 @@
       <c r="E6" s="22"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:6" s="18" customFormat="1" ht="225.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" s="18" customFormat="1" ht="225.5" customHeight="1">
       <c r="A7" s="53" t="s">
         <v>29</v>
       </c>
@@ -4940,7 +4941,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="18" customFormat="1" ht="179" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" s="18" customFormat="1" ht="179" customHeight="1">
       <c r="A8" s="53"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23" t="s">
@@ -4952,7 +4953,7 @@
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
     </row>
-    <row r="9" spans="1:6" s="18" customFormat="1" ht="245" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" s="18" customFormat="1" ht="245" customHeight="1">
       <c r="A9" s="53"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23" t="s">
@@ -4982,7 +4983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4992,15 +4993,15 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="34.58203125" style="19" customWidth="1"/>
-    <col min="2" max="6" width="34.08203125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="34.5" style="19" customWidth="1"/>
+    <col min="2" max="6" width="34" style="12" customWidth="1"/>
     <col min="7" max="7" width="20.33203125" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="10.58203125" style="12"/>
+    <col min="8" max="16384" width="10.5" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" s="9" customFormat="1" ht="31" customHeight="1">
       <c r="A1" s="49" t="s">
         <v>30</v>
       </c>
@@ -5010,7 +5011,7 @@
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
     </row>
-    <row r="2" spans="1:6" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="10" customFormat="1" ht="21">
       <c r="A2" s="51" t="s">
         <v>2</v>
       </c>
@@ -5022,7 +5023,7 @@
       <c r="E2" s="51"/>
       <c r="F2" s="51"/>
     </row>
-    <row r="3" spans="1:6" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="10" customFormat="1" ht="21">
       <c r="A3" s="51"/>
       <c r="B3" s="20" t="s">
         <v>4</v>
@@ -5040,7 +5041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="18" customFormat="1" ht="213.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" s="18" customFormat="1" ht="213.75" customHeight="1">
       <c r="A4" s="54" t="s">
         <v>31</v>
       </c>
@@ -5056,7 +5057,7 @@
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
     </row>
-    <row r="5" spans="1:6" s="18" customFormat="1" ht="214.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" s="18" customFormat="1" ht="214.5" customHeight="1">
       <c r="A5" s="54"/>
       <c r="B5" s="13" t="s">
         <v>165</v>
@@ -5070,7 +5071,7 @@
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
     </row>
-    <row r="6" spans="1:6" s="18" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" s="18" customFormat="1" ht="142.5" customHeight="1">
       <c r="A6" s="54"/>
       <c r="B6" s="22"/>
       <c r="C6" s="13" t="s">
@@ -5082,7 +5083,7 @@
       <c r="E6" s="13"/>
       <c r="F6" s="22"/>
     </row>
-    <row r="7" spans="1:6" s="18" customFormat="1" ht="166" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" s="18" customFormat="1" ht="166" customHeight="1">
       <c r="A7" s="54"/>
       <c r="B7" s="22"/>
       <c r="C7" s="13" t="s">
@@ -5094,7 +5095,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="22"/>
     </row>
-    <row r="8" spans="1:6" s="18" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" s="18" customFormat="1" ht="124.5" customHeight="1">
       <c r="A8" s="54"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13" t="s">
@@ -5104,7 +5105,7 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6">
       <c r="A9" s="33"/>
       <c r="D9" s="34"/>
     </row>
@@ -5125,24 +5126,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="54" zoomScaleNormal="54" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="34.58203125" style="19" customWidth="1"/>
-    <col min="2" max="6" width="34.08203125" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="10.58203125" style="12"/>
+    <col min="1" max="1" width="34.5" style="19" customWidth="1"/>
+    <col min="2" max="6" width="34" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="10.5" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" ht="31" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" s="9" customFormat="1" ht="31">
       <c r="A1" s="49" t="s">
         <v>32</v>
       </c>
@@ -5152,7 +5153,7 @@
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
     </row>
-    <row r="2" spans="1:6" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="21" customFormat="1" ht="21">
       <c r="A2" s="51" t="s">
         <v>2</v>
       </c>
@@ -5164,7 +5165,7 @@
       <c r="E2" s="51"/>
       <c r="F2" s="51"/>
     </row>
-    <row r="3" spans="1:6" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="21" customFormat="1" ht="21">
       <c r="A3" s="51"/>
       <c r="B3" s="20" t="s">
         <v>4</v>
@@ -5182,7 +5183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="17" customFormat="1" ht="168.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" s="17" customFormat="1" ht="168.75" customHeight="1">
       <c r="A4" s="14" t="s">
         <v>33</v>
       </c>
@@ -5198,7 +5199,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="17" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" s="17" customFormat="1" ht="126.75" customHeight="1">
       <c r="A5" s="53" t="s">
         <v>35</v>
       </c>
@@ -5210,7 +5211,7 @@
       <c r="E5" s="27"/>
       <c r="F5" s="26"/>
     </row>
-    <row r="6" spans="1:6" s="17" customFormat="1" ht="105.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" s="17" customFormat="1" ht="105.75" customHeight="1">
       <c r="A6" s="53"/>
       <c r="B6" s="27"/>
       <c r="C6" s="26" t="s">
@@ -5220,7 +5221,7 @@
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
     </row>
-    <row r="7" spans="1:6" s="17" customFormat="1" ht="171" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" s="17" customFormat="1" ht="171" customHeight="1">
       <c r="A7" s="48" t="s">
         <v>36</v>
       </c>
@@ -5238,7 +5239,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="17" customFormat="1" ht="135.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" s="17" customFormat="1" ht="135.5" customHeight="1">
       <c r="A8" s="48"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -5248,7 +5249,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="17" customFormat="1" ht="117.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" s="17" customFormat="1" ht="117.5" customHeight="1">
       <c r="A9" s="26" t="s">
         <v>39</v>
       </c>
@@ -5260,7 +5261,7 @@
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
     </row>
-    <row r="10" spans="1:6" ht="121" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="121" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
@@ -5274,7 +5275,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" s="17"/>
     </row>
   </sheetData>
@@ -5295,6 +5296,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002B3F23EB2048A24987DC8CE7E89BA2CA" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ffc1bc5956b27a984ba5de00502a7dd4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8d3f00d4-6cb9-4a73-b6cd-69039b4132b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="76801fabc773ef6da8f8c89f3a73e1fc" ns2:_="">
     <xsd:import namespace="8d3f00d4-6cb9-4a73-b6cd-69039b4132b3"/>
@@ -5442,22 +5458,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A49C780-D6EE-4F9B-A1B2-2AF8E74E99DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="8d3f00d4-6cb9-4a73-b6cd-69039b4132b3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{594FD6D8-8812-4CA3-A4C2-A9F4F741D298}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABF9B305-600D-4AD7-B171-E25C7BB7E295}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5473,28 +5498,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{594FD6D8-8812-4CA3-A4C2-A9F4F741D298}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A49C780-D6EE-4F9B-A1B2-2AF8E74E99DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="8d3f00d4-6cb9-4a73-b6cd-69039b4132b3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>